--- a/data/georgia_census/guria/lanchxuti/healthcare_staff.xlsx
+++ b/data/georgia_census/guria/lanchxuti/healthcare_staff.xlsx
@@ -1377,13 +1377,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{886C435C-98DF-4A1A-83CA-F27E17EA5793}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7FD421-48B5-479E-97BB-4E1B6EA98DED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5843D7-7AFF-4586-BBA4-193DBCA4013F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C700D1E-CCF7-4E87-9852-6CF2673B3652}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E5FF9F-9A24-4B60-B74F-C3B682130C56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60702ED-6B5A-48CE-BAF3-F663E2B783B5}"/>
 </file>